--- a/web_shark/mysite/analiz_data/new_shark.xlsx
+++ b/web_shark/mysite/analiz_data/new_shark.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\p35\web shark\ex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="data-0" sheetId="12" r:id="rId1"/>
-    <sheet name="data" sheetId="11" r:id="rId2"/>
+    <sheet name="data" sheetId="12" r:id="rId1"/>
+    <sheet name="data-1" sheetId="11" r:id="rId2"/>
     <sheet name="Раскладка 74F-57R" sheetId="7" r:id="rId3"/>
     <sheet name="Раскладка 534F-123R" sheetId="9" r:id="rId4"/>
     <sheet name="Раскладка 425F-103R" sheetId="10" r:id="rId5"/>
@@ -625,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -902,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
